--- a/biology/Médecine/Prix_de_la_Souris_Mathusalem/Prix_de_la_Souris_Mathusalem.xlsx
+++ b/biology/Médecine/Prix_de_la_Souris_Mathusalem/Prix_de_la_Souris_Mathusalem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prix de la Souris Mathusalem (Methuselah Mouse Prize, ou M Prize) est un prix qui encourageait les recherches visant le ralentissement radical du vieillissement, ou même le rajeunissement. Si la fondation existe toujours, son site ne fait plus mention de ce prix en 2021.
 Pour permettre à ceux qui le désirent de rester jeunes (beaucoup) plus longtemps que 80 ans, jusqu'à bannir totalement le vieillissement involontaire et les maladies qui lui sont associées, il accélère les recherches qui ont pour objectifs : ralentir, inverser le vieillissement cellulaire, et remplacer les cellules déjà mortes.
@@ -515,7 +527,9 @@
           <t>Organisation du prix et records actuels</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fondation offre pour le moment deux récompenses : le prix longévité, qui encourage l'accroissement de l'espérance de vie totale, et le prix rajeunissement, qui se concentre sur les interventions commencées à un âge plus avancé. Ces deux prix sont alimentés par les dons. Quand un record est battu, les chercheurs reçoivent une récompense basée sur l'importance de la réserve financière du moment et le pourcentage de durée de vie gagné depuis le record précédent.
 Le prix longévité autorise toutes sortes d'interventions, dont les croisements d'espèces de souris et les manipulations génétiques. Il suffit de présenter une seule souris. En 2005, le record était détenu par une souris dont le récepteur d'hormone de croissance avait été rendu inopérant : 1819 jours (presque 5 ans).
@@ -549,7 +563,9 @@
           <t>Objectifs et attentes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De Grey a déclaré en mars 2005 : « Si nous voulons développer de vraies thérapies régénératives qui ne bénéficieront pas seulement aux futures générations, mais aussi à ceux d'entre nous qui sont vivants aujourd'hui, nous devons encourager les scientifiques à travailler sur le problème du vieillissement. ». William Haseltine, le pionnier du séquençage du génome humain, a déclaré au sujet du prix de la Souris Mathusalem : « Il n'y a aucun effort comparable à celui-ci, et il a déjà significativement contribué à la prise de conscience que la médecine régénérative est une réalité très proche, pas une hypothèse ».
 La fondation pense que quand le ralentissement ou l'inversion du vieillissement cellulaire sera obtenu chez la souris, de très grands investissements pour transposer chez l'être humain les techniques développées deviendront disponibles – peut-être sous la forme d'un projet gouvernemental d'ampleur, comparable au Projet génome humain, ou encore grâce à des entreprises privées.
